--- a/Git/TortoiseGit_memo.xlsx
+++ b/Git/TortoiseGit_memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76887C4D-49F3-447D-8D69-629F4B4B3DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EF05CE-0FB1-429D-8993-D00390CF1A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="基本" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>1</t>
     <phoneticPr fontId="1"/>
@@ -349,6 +348,63 @@
   </si>
   <si>
     <t>基本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■コミットをまとめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[TortoiseGit] &gt; [ログを表示]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめたいコミットを複数選択する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右クリック &gt; [一つのコミットに集約] を選択</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■他のブランチの変更を取り込む</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※masterの変更をdevelopに取り込む場合</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>developに切り替え</t>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテキストメニューの[マージ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fromの[ブランチ]に、「remotes/origin/master」 を選択して「OK」クリック。</t>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5446,10 +5502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI738"/>
+  <dimension ref="A1:AI778"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A756" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K780" sqref="K780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5625" defaultRowHeight="18.75"/>
@@ -5737,6 +5793,67 @@
         <v>37</v>
       </c>
     </row>
+    <row r="764" spans="2:4">
+      <c r="B764" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="765" spans="2:4">
+      <c r="C765" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="767" spans="2:4">
+      <c r="C767" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="769" spans="2:14">
+      <c r="C769" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D769" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="773" spans="2:14">
+      <c r="B773" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N773" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="774" spans="2:14">
+      <c r="C774" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="776" spans="2:14">
+      <c r="C776" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="778" spans="2:14">
+      <c r="C778" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Git/TortoiseGit_memo.xlsx
+++ b/Git/TortoiseGit_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EF05CE-0FB1-429D-8993-D00390CF1A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD7FA40-1E11-404A-A16A-051A26DF5D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="83" windowWidth="11955" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="1" r:id="rId1"/>
@@ -53,31 +53,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リポジトリのURLを入力して「OK」クリック。</t>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クローンしたい空フォルダで、「Git クローン」クリック。</t>
-    <rPh sb="7" eb="8">
-      <t>カラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■チェックアウト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「切り替え/チェックアウト」クリック。</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -404,6 +380,30 @@
     <t>Fromの[ブランチ]に、「remotes/origin/master」 を選択して「OK」クリック。</t>
     <rPh sb="38" eb="40">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローンしたい空フォルダで、コンテキストメニューの[Git クローン]クリック。</t>
+    <rPh sb="7" eb="8">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リポジトリのURLを入力して[OK]クリック。</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[切り替え/チェックアウト]クリック。</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5504,8 +5504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI778"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A756" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K780" sqref="K780"/>
+    <sheetView tabSelected="1" topLeftCell="A715" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z736" sqref="Z736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5625" defaultRowHeight="18.75"/>
@@ -5517,7 +5517,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24.4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -5538,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="3:4">
@@ -5551,7 +5551,7 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="3:35">
@@ -5567,10 +5567,10 @@
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AI105" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="3:4">
@@ -5578,28 +5578,28 @@
         <v>2</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="3:4">
       <c r="C147" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="3:4">
       <c r="C167" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="2:4">
       <c r="B190" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="2:4">
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="3:4">
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="3:4">
@@ -5623,36 +5623,36 @@
         <v>2</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="3:4">
       <c r="C263" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284" spans="3:4">
       <c r="C284" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="312" spans="3:4">
       <c r="C312" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="2:4">
       <c r="B334" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="335" spans="2:4">
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365" spans="3:4">
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="388" spans="3:4">
@@ -5676,28 +5676,28 @@
         <v>2</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="415" spans="3:4">
       <c r="C415" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="443" spans="3:4">
       <c r="C443" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="468" spans="2:4">
       <c r="B468" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="469" spans="2:4">
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="498" spans="3:4">
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="524" spans="3:4">
@@ -5721,36 +5721,36 @@
         <v>2</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="546" spans="3:4">
       <c r="C546" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="588" spans="3:4">
       <c r="C588" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="616" spans="3:4">
       <c r="C616" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="642" spans="2:4">
       <c r="B642" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="643" spans="2:4">
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="671" spans="3:4">
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="697" spans="3:4">
@@ -5774,28 +5774,28 @@
         <v>2</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="723" spans="3:4">
       <c r="C723" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="738" spans="3:4">
       <c r="C738" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D738" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="764" spans="2:4">
       <c r="B764" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="765" spans="2:4">
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="767" spans="2:4">
@@ -5811,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="D767" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="769" spans="2:14">
@@ -5819,15 +5819,15 @@
         <v>2</v>
       </c>
       <c r="D769" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="773" spans="2:14">
       <c r="B773" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N773" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="774" spans="2:14">
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="776" spans="2:14">
@@ -5843,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="D776" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="778" spans="2:14">
@@ -5851,7 +5851,7 @@
         <v>2</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
